--- a/Bank OM Resources/dataset/Bank_dataset_no_space(m).xlsx
+++ b/Bank OM Resources/dataset/Bank_dataset_no_space(m).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Bank OM Resources/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B0C94A-C86F-9941-898E-3D9CF428CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C7116D-077F-9D49-AA40-84910E0A52BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="920" windowWidth="28040" windowHeight="16380" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
+    <workbookView xWindow="2240" yWindow="940" windowWidth="28040" windowHeight="16380" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC25649-7E87-1549-8AEF-1D6A900F91D9}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Bank OM Resources/dataset/Bank_dataset_no_space(m).xlsx
+++ b/Bank OM Resources/dataset/Bank_dataset_no_space(m).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Bank OM Resources/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C7116D-077F-9D49-AA40-84910E0A52BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B4170-82AE-714F-AD2E-2085F1E55364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="940" windowWidth="28040" windowHeight="16380" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Bank OM Resources/dataset/Bank_dataset_no_space(m).xlsx
+++ b/Bank OM Resources/dataset/Bank_dataset_no_space(m).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Bank OM Resources/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B4170-82AE-714F-AD2E-2085F1E55364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6BACDC-E2AF-8C42-90C0-35392624E7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{C571DF1E-96F1-4C4B-9943-E555245EFDA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>OM_REGULAR</t>
   </si>
@@ -74,9 +74,6 @@
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​PO</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,</t>
   </si>
   <si>
@@ -101,45 +98,24 @@
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
   </si>
   <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,</t>
   </si>
   <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​</t>
   </si>
   <si>
@@ -149,18 +125,9 @@
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show , Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show , Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
     <t xml:space="preserve">module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, </t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,</t>
   </si>
   <si>
@@ -176,34 +143,70 @@
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table Name: class8_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table Name: class8_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table Name: class8_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Table Name: class5_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc3 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​ ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
   </si>
   <si>
-    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ,P</t>
-  </si>
-  <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
   </si>
   <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table Name: class8_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table Name: class8_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Table Name: class5_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc3 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table Name: class5_name Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_class5_name_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​ ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, N​P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type1 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c6_at1` c6_at1_type `c4_at1` c4_at1_type NOT NULL KEY `FK_class4_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `class4_name` ADD CONSTRAINT `FK_class4_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show , Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c6_at1` c6_at1_type `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type KEY `FK_class3_name_c6_at1_idx` (`c6_at1`) PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class3_name` ADD CONSTRAINT `FK_class3_name_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc5 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,N​P</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,12 +561,12 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="130.1640625" customWidth="1"/>
+    <col min="1" max="1" width="104" customWidth="1"/>
     <col min="2" max="2" width="127.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -612,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -628,199 +631,199 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
